--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.442864983218</v>
+        <v>12.77892533333333</v>
       </c>
       <c r="N2">
-        <v>10.442864983218</v>
+        <v>38.336776</v>
       </c>
       <c r="O2">
-        <v>0.712904277040024</v>
+        <v>0.7206984557633653</v>
       </c>
       <c r="P2">
-        <v>0.712904277040024</v>
+        <v>0.7206984557633654</v>
       </c>
       <c r="Q2">
-        <v>140.567012866992</v>
+        <v>240.5631756878809</v>
       </c>
       <c r="R2">
-        <v>140.567012866992</v>
+        <v>2165.068581190928</v>
       </c>
       <c r="S2">
-        <v>0.03933969025649558</v>
+        <v>0.04963356409996448</v>
       </c>
       <c r="T2">
-        <v>0.03933969025649558</v>
+        <v>0.04963356409996448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.916808976576171</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N3">
-        <v>0.916808976576171</v>
+        <v>2.969483</v>
       </c>
       <c r="O3">
-        <v>0.06258790491691597</v>
+        <v>0.05582372947885773</v>
       </c>
       <c r="P3">
-        <v>0.06258790491691597</v>
+        <v>0.05582372947885774</v>
       </c>
       <c r="Q3">
-        <v>12.34077998844755</v>
+        <v>18.63349856626378</v>
       </c>
       <c r="R3">
-        <v>12.34077998844755</v>
+        <v>167.701487096374</v>
       </c>
       <c r="S3">
-        <v>0.00345374389315978</v>
+        <v>0.003844507551293693</v>
       </c>
       <c r="T3">
-        <v>0.00345374389315978</v>
+        <v>0.003844507551293693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.28866708618291</v>
+        <v>0.02976266666666667</v>
       </c>
       <c r="N4">
-        <v>3.28866708618291</v>
+        <v>0.08928800000000001</v>
       </c>
       <c r="O4">
-        <v>0.22450781804306</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="P4">
-        <v>0.22450781804306</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="Q4">
-        <v>44.26736430678948</v>
+        <v>0.5602819817404445</v>
       </c>
       <c r="R4">
-        <v>44.26736430678948</v>
+        <v>5.042537835664</v>
       </c>
       <c r="S4">
-        <v>0.01238885542761276</v>
+        <v>0.0001155987053099517</v>
       </c>
       <c r="T4">
-        <v>0.01238885542761276</v>
+        <v>0.0001155987053099517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>120.796654575229</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>120.796654575229</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.4952116691091795</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.4952116691091795</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.442864983218</v>
+        <v>3.932791</v>
       </c>
       <c r="N5">
-        <v>10.442864983218</v>
+        <v>11.798373</v>
       </c>
       <c r="O5">
-        <v>0.712904277040024</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="P5">
-        <v>0.712904277040024</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="Q5">
-        <v>1261.463154153539</v>
+        <v>74.03476173453267</v>
       </c>
       <c r="R5">
-        <v>1261.463154153539</v>
+        <v>666.312855610794</v>
       </c>
       <c r="S5">
-        <v>0.3530385169480632</v>
+        <v>0.01527502736721497</v>
       </c>
       <c r="T5">
-        <v>0.3530385169480632</v>
+        <v>0.01527502736721497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.916808976576171</v>
+        <v>12.77892533333333</v>
       </c>
       <c r="N6">
-        <v>0.916808976576171</v>
+        <v>38.336776</v>
       </c>
       <c r="O6">
-        <v>0.06258790491691597</v>
+        <v>0.7206984557633653</v>
       </c>
       <c r="P6">
-        <v>0.06258790491691597</v>
+        <v>0.7206984557633654</v>
       </c>
       <c r="Q6">
-        <v>110.7474572549409</v>
+        <v>1556.740087167706</v>
       </c>
       <c r="R6">
-        <v>110.7474572549409</v>
+        <v>14010.66078450935</v>
       </c>
       <c r="S6">
-        <v>0.03099426085995258</v>
+        <v>0.3211903013937273</v>
       </c>
       <c r="T6">
-        <v>0.03099426085995258</v>
+        <v>0.3211903013937273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.28866708618291</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N7">
-        <v>3.28866708618291</v>
+        <v>2.969483</v>
       </c>
       <c r="O7">
-        <v>0.22450781804306</v>
+        <v>0.05582372947885773</v>
       </c>
       <c r="P7">
-        <v>0.22450781804306</v>
+        <v>0.05582372947885774</v>
       </c>
       <c r="Q7">
-        <v>397.2599820225618</v>
+        <v>120.5816896095546</v>
       </c>
       <c r="R7">
-        <v>397.2599820225618</v>
+        <v>1085.235206485991</v>
       </c>
       <c r="S7">
-        <v>0.1111788913011637</v>
+        <v>0.02487869975695269</v>
       </c>
       <c r="T7">
-        <v>0.1111788913011637</v>
+        <v>0.02487869975695269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.8347098435864</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>73.8347098435864</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>10.442864983218</v>
+        <v>0.02976266666666667</v>
       </c>
       <c r="N8">
-        <v>10.442864983218</v>
+        <v>0.08928800000000001</v>
       </c>
       <c r="O8">
-        <v>0.712904277040024</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="P8">
-        <v>0.712904277040024</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="Q8">
-        <v>771.0459059716497</v>
+        <v>3.62571461155289</v>
       </c>
       <c r="R8">
-        <v>771.0459059716497</v>
+        <v>32.631431503976</v>
       </c>
       <c r="S8">
-        <v>0.2157882315046794</v>
+        <v>0.0007480660249271645</v>
       </c>
       <c r="T8">
-        <v>0.2157882315046794</v>
+        <v>0.0007480660249271646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.8347098435864</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>73.8347098435864</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.916808976576171</v>
+        <v>3.932791</v>
       </c>
       <c r="N9">
-        <v>0.916808976576171</v>
+        <v>11.798373</v>
       </c>
       <c r="O9">
-        <v>0.06258790491691597</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="P9">
-        <v>0.06258790491691597</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="Q9">
-        <v>67.69232476749698</v>
+        <v>479.0961089805024</v>
       </c>
       <c r="R9">
-        <v>67.69232476749698</v>
+        <v>4311.864980824522</v>
       </c>
       <c r="S9">
-        <v>0.01894466585567432</v>
+        <v>0.09884824378100063</v>
       </c>
       <c r="T9">
-        <v>0.01894466585567432</v>
+        <v>0.09884824378100063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.28866708618291</v>
+        <v>12.77892533333333</v>
       </c>
       <c r="N10">
-        <v>3.28866708618291</v>
+        <v>38.336776</v>
       </c>
       <c r="O10">
-        <v>0.22450781804306</v>
+        <v>0.7206984557633653</v>
       </c>
       <c r="P10">
-        <v>0.22450781804306</v>
+        <v>0.7206984557633654</v>
       </c>
       <c r="Q10">
-        <v>242.8177800804679</v>
+        <v>1120.374196420653</v>
       </c>
       <c r="R10">
-        <v>242.8177800804679</v>
+        <v>10083.36776778588</v>
       </c>
       <c r="S10">
-        <v>0.06795603080912138</v>
+        <v>0.2311582574306369</v>
       </c>
       <c r="T10">
-        <v>0.06795603080912138</v>
+        <v>0.2311582574306369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.8373941381059</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>35.8373941381059</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.442864983218</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N11">
-        <v>10.442864983218</v>
+        <v>2.969483</v>
       </c>
       <c r="O11">
-        <v>0.712904277040024</v>
+        <v>0.05582372947885773</v>
       </c>
       <c r="P11">
-        <v>0.712904277040024</v>
+        <v>0.05582372947885774</v>
       </c>
       <c r="Q11">
-        <v>374.2450683346081</v>
+        <v>86.78174006885168</v>
       </c>
       <c r="R11">
-        <v>374.2450683346081</v>
+        <v>781.0356606196651</v>
       </c>
       <c r="S11">
-        <v>0.1047378383307859</v>
+        <v>0.01790501412403328</v>
       </c>
       <c r="T11">
-        <v>0.1047378383307859</v>
+        <v>0.01790501412403328</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.8373941381059</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>35.8373941381059</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.916808976576171</v>
+        <v>0.02976266666666667</v>
       </c>
       <c r="N12">
-        <v>0.916808976576171</v>
+        <v>0.08928800000000001</v>
       </c>
       <c r="O12">
-        <v>0.06258790491691597</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="P12">
-        <v>0.06258790491691597</v>
+        <v>0.001678537697541373</v>
       </c>
       <c r="Q12">
-        <v>32.85604464291374</v>
+        <v>2.609399685826667</v>
       </c>
       <c r="R12">
-        <v>32.85604464291374</v>
+        <v>23.48459717244</v>
       </c>
       <c r="S12">
-        <v>0.009195234308129298</v>
+        <v>0.0005383775226551838</v>
       </c>
       <c r="T12">
-        <v>0.009195234308129298</v>
+        <v>0.0005383775226551838</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.8373941381059</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>35.8373941381059</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.28866708618291</v>
+        <v>3.932791</v>
       </c>
       <c r="N13">
-        <v>3.28866708618291</v>
+        <v>11.798373</v>
       </c>
       <c r="O13">
-        <v>0.22450781804306</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="P13">
-        <v>0.22450781804306</v>
+        <v>0.2217992770602354</v>
       </c>
       <c r="Q13">
-        <v>117.8572585565532</v>
+        <v>344.801886025735</v>
       </c>
       <c r="R13">
-        <v>117.8572585565532</v>
+        <v>3103.216974231615</v>
       </c>
       <c r="S13">
-        <v>0.03298404050516218</v>
+        <v>0.07114034167079349</v>
       </c>
       <c r="T13">
-        <v>0.03298404050516218</v>
+        <v>0.07114034167079349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H14">
+        <v>135.080009</v>
+      </c>
+      <c r="I14">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J14">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.77892533333333</v>
+      </c>
+      <c r="N14">
+        <v>38.336776</v>
+      </c>
+      <c r="O14">
+        <v>0.7206984557633653</v>
+      </c>
+      <c r="P14">
+        <v>0.7206984557633654</v>
+      </c>
+      <c r="Q14">
+        <v>575.3924496789982</v>
+      </c>
+      <c r="R14">
+        <v>5178.532047110984</v>
+      </c>
+      <c r="S14">
+        <v>0.1187163328390368</v>
+      </c>
+      <c r="T14">
+        <v>0.1187163328390368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H15">
+        <v>135.080009</v>
+      </c>
+      <c r="I15">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J15">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9898276666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.969483</v>
+      </c>
+      <c r="O15">
+        <v>0.05582372947885773</v>
+      </c>
+      <c r="P15">
+        <v>0.05582372947885774</v>
+      </c>
+      <c r="Q15">
+        <v>44.56864337392744</v>
+      </c>
+      <c r="R15">
+        <v>401.117790365347</v>
+      </c>
+      <c r="S15">
+        <v>0.00919550804657808</v>
+      </c>
+      <c r="T15">
+        <v>0.00919550804657808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H16">
+        <v>135.080009</v>
+      </c>
+      <c r="I16">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J16">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02976266666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.08928800000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.001678537697541373</v>
+      </c>
+      <c r="P16">
+        <v>0.001678537697541373</v>
+      </c>
+      <c r="Q16">
+        <v>1.340113760399111</v>
+      </c>
+      <c r="R16">
+        <v>12.061023843592</v>
+      </c>
+      <c r="S16">
+        <v>0.0002764954446490731</v>
+      </c>
+      <c r="T16">
+        <v>0.0002764954446490731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H17">
+        <v>135.080009</v>
+      </c>
+      <c r="I17">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J17">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.932791</v>
+      </c>
+      <c r="N17">
+        <v>11.798373</v>
+      </c>
+      <c r="O17">
+        <v>0.2217992770602354</v>
+      </c>
+      <c r="P17">
+        <v>0.2217992770602354</v>
+      </c>
+      <c r="Q17">
+        <v>177.0804812250396</v>
+      </c>
+      <c r="R17">
+        <v>1593.724331025357</v>
+      </c>
+      <c r="S17">
+        <v>0.03653566424122635</v>
+      </c>
+      <c r="T17">
+        <v>0.03653566424122635</v>
       </c>
     </row>
   </sheetData>
